--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/57/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/57/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.89291</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1892.91</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,351 +488,351 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.35615</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2356.15</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124015</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7732</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2773.2</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155045</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.10733</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>3107.33</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186021</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>3.42083</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3420.83</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216998</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>3.66513</v>
+        <v>7.6073</v>
       </c>
       <c r="C9" t="n">
-        <v>3665.13</v>
+        <v>7607.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247974</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>3.77713</v>
+        <v>7.813479999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3777.13</v>
+        <v>7813.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278899</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>3.79591</v>
+        <v>7.96147</v>
       </c>
       <c r="C11" t="n">
-        <v>3795.91</v>
+        <v>7961.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309824</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>3.80982</v>
+        <v>8.073080000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>3809.82</v>
+        <v>8073.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340749</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>3.82172</v>
+        <v>8.136290000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>3821.72</v>
+        <v>8136.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371674</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>3.8321</v>
+        <v>8.18567</v>
       </c>
       <c r="C14" t="n">
-        <v>3832.1</v>
+        <v>8185.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402599</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>3.84181</v>
+        <v>8.225280000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>3841.81</v>
+        <v>8225.280000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433524</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>3.85075</v>
+        <v>8.252190000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>3850.75</v>
+        <v>8252.190000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464449</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>3.85942</v>
+        <v>8.27773</v>
       </c>
       <c r="C17" t="n">
-        <v>3859.42</v>
+        <v>8277.73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495374</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>3.86739</v>
+        <v>8.300540000000002</v>
       </c>
       <c r="C18" t="n">
-        <v>3867.39</v>
+        <v>8300.540000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526295</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>3.87492</v>
+        <v>8.319750000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>3874.92</v>
+        <v>8319.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.55722</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>3.88215</v>
+        <v>8.33713</v>
       </c>
       <c r="C20" t="n">
-        <v>3882.15</v>
+        <v>8337.129999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588145</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>3.8892</v>
+        <v>8.35261</v>
       </c>
       <c r="C21" t="n">
-        <v>3889.2</v>
+        <v>8352.610000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619187</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>3.89594</v>
+        <v>8.366100000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3895.94</v>
+        <v>8366.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6503640000000001</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>3.90244</v>
+        <v>8.37861</v>
       </c>
       <c r="C23" t="n">
-        <v>3902.44</v>
+        <v>8378.610000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681536</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>3.90879</v>
+        <v>8.39002</v>
       </c>
       <c r="C24" t="n">
-        <v>3908.79</v>
+        <v>8390.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712709</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>3.91494</v>
+        <v>8.40048</v>
       </c>
       <c r="C25" t="n">
-        <v>3914.94</v>
+        <v>8400.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743886</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>3.92089</v>
+        <v>8.409660000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>3920.89</v>
+        <v>8409.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7750590000000001</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>3.92669</v>
+        <v>8.41813</v>
       </c>
       <c r="C27" t="n">
-        <v>3926.69</v>
+        <v>8418.129999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806231</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>3.93234</v>
+        <v>8.425549999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>3932.34</v>
+        <v>8425.549999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837408</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>3.93784</v>
+        <v>8.43225</v>
       </c>
       <c r="C29" t="n">
-        <v>3937.84</v>
+        <v>8432.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868581</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>3.9432</v>
+        <v>8.438129999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>3943.2</v>
+        <v>8438.129999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8997579999999999</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>3.94842</v>
+        <v>8.443239999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>3948.42</v>
+        <v>8443.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93093</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>3.9535</v>
+        <v>8.447649999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>3953.5</v>
+        <v>8447.65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962103</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>3.95847</v>
+        <v>8.451360000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>3958.47</v>
+        <v>8451.360000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9932800000000001</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>3.96334</v>
+        <v>8.45439</v>
       </c>
       <c r="C34" t="n">
-        <v>3963.34</v>
+        <v>8454.389999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02459</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>3.96807</v>
+        <v>8.456790000000002</v>
       </c>
       <c r="C35" t="n">
-        <v>3968.07</v>
+        <v>8456.790000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05597</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97268</v>
+        <v>8.45857</v>
       </c>
       <c r="C36" t="n">
-        <v>3972.68</v>
+        <v>8458.57</v>
       </c>
     </row>
     <row r="37">
@@ -840,725 +840,725 @@
         <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>3.97719</v>
+        <v>8.459709999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>3977.19</v>
+        <v>8459.709999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.1183</v>
+        <v>1.11873</v>
       </c>
       <c r="B38" t="n">
-        <v>3.98158</v>
+        <v>8.460240000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>3981.58</v>
+        <v>8460.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14928</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>3.98586</v>
+        <v>8.46011</v>
       </c>
       <c r="C39" t="n">
-        <v>3985.86</v>
+        <v>8460.110000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18024</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>3.99003</v>
+        <v>8.459299999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>3990.03</v>
+        <v>8459.299999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21121</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>3.99409</v>
+        <v>8.45782</v>
       </c>
       <c r="C41" t="n">
-        <v>3994.09</v>
+        <v>8457.82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24218</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>3.99807</v>
+        <v>8.455770000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>3998.07</v>
+        <v>8455.77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27314</v>
+        <v>1.27563</v>
       </c>
       <c r="B43" t="n">
-        <v>4.00196</v>
+        <v>8.453100000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>4001.96</v>
+        <v>8453.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30411</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>4.00576</v>
+        <v>8.44983</v>
       </c>
       <c r="C44" t="n">
-        <v>4005.76</v>
+        <v>8449.83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33502</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>4.0095</v>
+        <v>8.445959999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>4009.5</v>
+        <v>8445.959999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36557</v>
+        <v>1.36977</v>
       </c>
       <c r="B46" t="n">
-        <v>4.01316</v>
+        <v>8.441450000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>4013.16</v>
+        <v>8441.450000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39612</v>
+        <v>1.40115</v>
       </c>
       <c r="B47" t="n">
-        <v>4.01672</v>
+        <v>8.43638</v>
       </c>
       <c r="C47" t="n">
-        <v>4016.72</v>
+        <v>8436.379999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42668</v>
+        <v>1.43253</v>
       </c>
       <c r="B48" t="n">
-        <v>4.02019</v>
+        <v>8.43066</v>
       </c>
       <c r="C48" t="n">
-        <v>4020.19</v>
+        <v>8430.66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45723</v>
+        <v>1.46387</v>
       </c>
       <c r="B49" t="n">
-        <v>4.0236</v>
+        <v>8.42435</v>
       </c>
       <c r="C49" t="n">
-        <v>4023.6</v>
+        <v>8424.35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48779</v>
+        <v>1.49484</v>
       </c>
       <c r="B50" t="n">
-        <v>4.02696</v>
+        <v>8.41747</v>
       </c>
       <c r="C50" t="n">
-        <v>4026.96</v>
+        <v>8417.469999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5188</v>
+        <v>1.5258</v>
       </c>
       <c r="B51" t="n">
-        <v>4.03029</v>
+        <v>8.409870000000002</v>
       </c>
       <c r="C51" t="n">
-        <v>4030.29</v>
+        <v>8409.870000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55037</v>
+        <v>1.55677</v>
       </c>
       <c r="B52" t="n">
-        <v>4.0336</v>
+        <v>8.401700000000002</v>
       </c>
       <c r="C52" t="n">
-        <v>4033.6</v>
+        <v>8401.700000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58195</v>
+        <v>1.58774</v>
       </c>
       <c r="B53" t="n">
-        <v>4.03685</v>
+        <v>8.392940000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>4036.85</v>
+        <v>8392.940000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61346</v>
+        <v>1.61871</v>
       </c>
       <c r="B54" t="n">
-        <v>4.04002</v>
+        <v>8.38341</v>
       </c>
       <c r="C54" t="n">
-        <v>4040.02</v>
+        <v>8383.41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64461</v>
+        <v>1.64968</v>
       </c>
       <c r="B55" t="n">
-        <v>4.04314</v>
+        <v>8.373250000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4043.14</v>
+        <v>8373.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67576</v>
+        <v>1.68049</v>
       </c>
       <c r="B56" t="n">
-        <v>4.04617</v>
+        <v>8.36205</v>
       </c>
       <c r="C56" t="n">
-        <v>4046.17</v>
+        <v>8362.049999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7069</v>
+        <v>1.71105</v>
       </c>
       <c r="B57" t="n">
-        <v>4.04917</v>
+        <v>8.349879999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>4049.17</v>
+        <v>8349.879999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73805</v>
+        <v>1.7416</v>
       </c>
       <c r="B58" t="n">
-        <v>4.052090000000001</v>
+        <v>8.336770000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>4052.09</v>
+        <v>8336.77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7692</v>
+        <v>1.77215</v>
       </c>
       <c r="B59" t="n">
-        <v>4.05497</v>
+        <v>8.32297</v>
       </c>
       <c r="C59" t="n">
-        <v>4054.97</v>
+        <v>8322.969999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80034</v>
+        <v>1.80306</v>
       </c>
       <c r="B60" t="n">
-        <v>4.0578</v>
+        <v>8.308280000000002</v>
       </c>
       <c r="C60" t="n">
-        <v>4057.8</v>
+        <v>8308.280000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83149</v>
+        <v>1.83463</v>
       </c>
       <c r="B61" t="n">
-        <v>4.06056</v>
+        <v>8.29246</v>
       </c>
       <c r="C61" t="n">
-        <v>4060.56</v>
+        <v>8292.459999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86264</v>
+        <v>1.86621</v>
       </c>
       <c r="B62" t="n">
-        <v>4.06327</v>
+        <v>8.275690000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>4063.27</v>
+        <v>8275.690000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89379</v>
+        <v>1.89778</v>
       </c>
       <c r="B63" t="n">
-        <v>4.06593</v>
+        <v>8.257959999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>4065.93</v>
+        <v>8257.959999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9246</v>
+        <v>1.92935</v>
       </c>
       <c r="B64" t="n">
-        <v>4.068510000000001</v>
+        <v>8.239190000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>4068.51</v>
+        <v>8239.190000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95532</v>
+        <v>1.96093</v>
       </c>
       <c r="B65" t="n">
-        <v>4.07104</v>
+        <v>8.21927</v>
       </c>
       <c r="C65" t="n">
-        <v>4071.04</v>
+        <v>8219.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98604</v>
+        <v>1.9925</v>
       </c>
       <c r="B66" t="n">
-        <v>4.07352</v>
+        <v>8.197900000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4073.52</v>
+        <v>8197.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01676</v>
+        <v>2.02407</v>
       </c>
       <c r="B67" t="n">
-        <v>4.07593</v>
+        <v>8.17503</v>
       </c>
       <c r="C67" t="n">
-        <v>4075.93</v>
+        <v>8175.03</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04748</v>
+        <v>2.05564</v>
       </c>
       <c r="B68" t="n">
-        <v>4.0783</v>
+        <v>8.150840000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>4078.3</v>
+        <v>8150.84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0782</v>
+        <v>2.08722</v>
       </c>
       <c r="B69" t="n">
-        <v>4.08062</v>
+        <v>8.12499</v>
       </c>
       <c r="C69" t="n">
-        <v>4080.62</v>
+        <v>8124.99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10892</v>
+        <v>2.11879</v>
       </c>
       <c r="B70" t="n">
-        <v>4.08291</v>
+        <v>8.097710000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4082.91</v>
+        <v>8097.71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13964</v>
+        <v>2.15036</v>
       </c>
       <c r="B71" t="n">
-        <v>4.08516</v>
+        <v>8.068899999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>4085.16</v>
+        <v>8068.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17036</v>
+        <v>2.18178</v>
       </c>
       <c r="B72" t="n">
-        <v>4.08736</v>
+        <v>8.038600000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>4087.36</v>
+        <v>8038.6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20108</v>
+        <v>2.2125</v>
       </c>
       <c r="B73" t="n">
-        <v>4.08953</v>
+        <v>8.006880000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>4089.53</v>
+        <v>8006.88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23226</v>
+        <v>2.24322</v>
       </c>
       <c r="B74" t="n">
-        <v>4.091670000000001</v>
+        <v>7.97353</v>
       </c>
       <c r="C74" t="n">
-        <v>4091.67</v>
+        <v>7973.53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26404</v>
+        <v>2.27439</v>
       </c>
       <c r="B75" t="n">
-        <v>4.09382</v>
+        <v>7.937880000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>4093.82</v>
+        <v>7937.88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29582</v>
+        <v>2.30529</v>
       </c>
       <c r="B76" t="n">
-        <v>4.09593</v>
+        <v>7.90023</v>
       </c>
       <c r="C76" t="n">
-        <v>4095.93</v>
+        <v>7900.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3276</v>
+        <v>2.33628</v>
       </c>
       <c r="B77" t="n">
-        <v>4.09799</v>
+        <v>7.86026</v>
       </c>
       <c r="C77" t="n">
-        <v>4097.99</v>
+        <v>7860.26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35927</v>
+        <v>2.36737</v>
       </c>
       <c r="B78" t="n">
-        <v>4.100029999999999</v>
+        <v>7.817760000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>4100.03</v>
+        <v>7817.76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39016</v>
+        <v>2.39827</v>
       </c>
       <c r="B79" t="n">
-        <v>4.10205</v>
+        <v>7.77292</v>
       </c>
       <c r="C79" t="n">
-        <v>4102.05</v>
+        <v>7772.92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42106</v>
+        <v>2.42941</v>
       </c>
       <c r="B80" t="n">
-        <v>4.10402</v>
+        <v>7.72536</v>
       </c>
       <c r="C80" t="n">
-        <v>4104.02</v>
+        <v>7725.36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45105</v>
+        <v>2.46077</v>
       </c>
       <c r="B81" t="n">
-        <v>4.10589</v>
+        <v>7.67445</v>
       </c>
       <c r="C81" t="n">
-        <v>4105.89</v>
+        <v>7674.45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48092</v>
+        <v>2.49168</v>
       </c>
       <c r="B82" t="n">
-        <v>4.107699999999999</v>
+        <v>7.62147</v>
       </c>
       <c r="C82" t="n">
-        <v>4107.7</v>
+        <v>7621.47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51079</v>
+        <v>2.52197</v>
       </c>
       <c r="B83" t="n">
-        <v>4.10948</v>
+        <v>7.56678</v>
       </c>
       <c r="C83" t="n">
-        <v>4109.48</v>
+        <v>7566.78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54065</v>
+        <v>2.55373</v>
       </c>
       <c r="B84" t="n">
-        <v>4.11124</v>
+        <v>7.50628</v>
       </c>
       <c r="C84" t="n">
-        <v>4111.24</v>
+        <v>7506.28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57052</v>
+        <v>2.58488</v>
       </c>
       <c r="B85" t="n">
-        <v>4.112970000000001</v>
+        <v>7.443510000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>4112.97</v>
+        <v>7443.51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60126</v>
+        <v>2.6155</v>
       </c>
       <c r="B86" t="n">
-        <v>4.1147</v>
+        <v>7.379</v>
       </c>
       <c r="C86" t="n">
-        <v>4114.7</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63326</v>
+        <v>2.64611</v>
       </c>
       <c r="B87" t="n">
-        <v>4.116470000000001</v>
+        <v>7.311260000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>4116.47</v>
+        <v>7311.26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66526</v>
+        <v>2.67781</v>
       </c>
       <c r="B88" t="n">
-        <v>4.118189999999999</v>
+        <v>7.23758</v>
       </c>
       <c r="C88" t="n">
-        <v>4118.19</v>
+        <v>7237.58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69726</v>
+        <v>2.70897</v>
       </c>
       <c r="B89" t="n">
-        <v>4.11987</v>
+        <v>7.16272</v>
       </c>
       <c r="C89" t="n">
-        <v>4119.87</v>
+        <v>7162.72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72926</v>
+        <v>2.73922</v>
       </c>
       <c r="B90" t="n">
-        <v>4.121510000000001</v>
+        <v>7.08696</v>
       </c>
       <c r="C90" t="n">
-        <v>4121.51</v>
+        <v>7086.96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76126</v>
+        <v>2.77019</v>
       </c>
       <c r="B91" t="n">
-        <v>4.12312</v>
+        <v>7.006640000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>4123.12</v>
+        <v>7006.64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79326</v>
+        <v>2.80217</v>
       </c>
       <c r="B92" t="n">
-        <v>4.1247</v>
+        <v>6.922</v>
       </c>
       <c r="C92" t="n">
-        <v>4124.7</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82526</v>
+        <v>2.83289</v>
       </c>
       <c r="B93" t="n">
-        <v>4.12623</v>
+        <v>6.8368</v>
       </c>
       <c r="C93" t="n">
-        <v>4126.23</v>
+        <v>6836.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85726</v>
+        <v>2.86319</v>
       </c>
       <c r="B94" t="n">
-        <v>4.12773</v>
+        <v>6.751300000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>4127.73</v>
+        <v>6751.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88926</v>
+        <v>2.89411</v>
       </c>
       <c r="B95" t="n">
-        <v>4.129189999999999</v>
+        <v>6.661600000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>4129.19</v>
+        <v>6661.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92126</v>
+        <v>2.92569</v>
       </c>
       <c r="B96" t="n">
-        <v>4.13062</v>
+        <v>6.56791</v>
       </c>
       <c r="C96" t="n">
-        <v>4130.62</v>
+        <v>6567.91</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95326</v>
+        <v>2.95635</v>
       </c>
       <c r="B97" t="n">
-        <v>4.13204</v>
+        <v>6.47549</v>
       </c>
       <c r="C97" t="n">
-        <v>4132.04</v>
+        <v>6475.49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98489</v>
+        <v>2.98622</v>
       </c>
       <c r="B98" t="n">
-        <v>4.13341</v>
+        <v>6.38416</v>
       </c>
       <c r="C98" t="n">
-        <v>4133.41</v>
+        <v>6384.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01598</v>
+        <v>3.01765</v>
       </c>
       <c r="B99" t="n">
-        <v>4.134770000000001</v>
+        <v>6.2873</v>
       </c>
       <c r="C99" t="n">
-        <v>4134.77</v>
+        <v>6287.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04707</v>
+        <v>3.04965</v>
       </c>
       <c r="B100" t="n">
-        <v>4.13609</v>
+        <v>6.18788</v>
       </c>
       <c r="C100" t="n">
-        <v>4136.09</v>
+        <v>6187.88</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07815</v>
+        <v>3.08104</v>
       </c>
       <c r="B101" t="n">
-        <v>4.13737</v>
+        <v>6.09054</v>
       </c>
       <c r="C101" t="n">
-        <v>4137.37</v>
+        <v>6090.54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10924</v>
+        <v>3.11144</v>
       </c>
       <c r="B102" t="n">
-        <v>4.13863</v>
+        <v>5.99521</v>
       </c>
       <c r="C102" t="n">
-        <v>4138.63</v>
+        <v>5995.21</v>
       </c>
     </row>
   </sheetData>
